--- a/figures.xlsx
+++ b/figures.xlsx
@@ -73,6 +73,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDBA7E9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -114,7 +119,7 @@
         <a:noFill/>
         <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="7030A0"/>
+            <a:srgbClr val="DBA7E9"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -472,13 +477,21 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="38100">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -915,13 +928,21 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="38100">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -1366,13 +1387,21 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="38100">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -1873,13 +1902,21 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="38100">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -2412,13 +2449,21 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="38100">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -2975,13 +3020,21 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="38100">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -3540,13 +3593,21 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="38100">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -4143,13 +4204,21 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="38100">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -4778,13 +4847,21 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="38100">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -5453,13 +5530,21 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="38100">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -6184,13 +6269,21 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="38100">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -6553,11 +6646,13 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="101600">
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -7000,11 +7095,13 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="101600">
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -7455,11 +7552,13 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="101600">
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -7966,11 +8065,13 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="101600">
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -8057,8 +8158,15 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8509,11 +8617,13 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="101600">
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -8536,8 +8646,15 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9076,11 +9193,13 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="101600">
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -9645,11 +9764,13 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="101600">
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -10252,11 +10373,13 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="101600">
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -10891,11 +11014,13 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="101600">
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -11570,11 +11695,13 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="101600">
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -12305,11 +12432,13 @@
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="25400" dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
+          <a:glow rad="101600">
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
               <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
+            </a:schemeClr>
+          </a:glow>
         </a:effectLst>
       </xdr:spPr>
       <xdr:style>
@@ -12494,6 +12623,68 @@
         <a:solidFill>
           <a:srgbClr val="FFFF00"/>
         </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Hexagon 54"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="45107"/>
+          <a:ext cx="1270000" cy="1148256"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12790,8 +12981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="46" zoomScalePageLayoutView="46" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="116" zoomScalePageLayoutView="116" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
